--- a/output/Roboto/article3_Roboto.xlsx
+++ b/output/Roboto/article3_Roboto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Greek mythology </t>
+          <t xml:space="preserve">Greek </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,7 +473,7 @@
         <v>644</v>
       </c>
       <c r="D2" t="n">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">gift of prophecy. </t>
+          <t xml:space="preserve">mythology </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>870</v>
+        <v>210</v>
       </c>
       <c r="C3" t="n">
-        <v>920</v>
+        <v>644</v>
       </c>
       <c r="D3" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trojan Horse trick, </t>
+          <t xml:space="preserve">gift </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>870</v>
       </c>
       <c r="C4" t="n">
-        <v>989</v>
+        <v>926.8</v>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
@@ -520,19 +520,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bronze Age. </t>
+          <t xml:space="preserve">of </t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>926.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">prophecy. </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>152</v>
+      </c>
+      <c r="C6" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trojan </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>356</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horse </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>415</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1001.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trick, </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>472</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1001.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agamemnon’s </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>226</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1026.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bronze </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>349</v>
       </c>
-      <c r="C5" t="n">
-        <v>1173</v>
-      </c>
-      <c r="D5" t="n">
-        <v>110</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C11" t="n">
+        <v>1193.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Age. </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>416</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1193.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45</v>
+      </c>
+      <c r="E12" t="n">
         <v>23</v>
       </c>
     </row>
